--- a/src/test/resources/Run_Manager_Card_Details.xlsx
+++ b/src/test/resources/Run_Manager_Card_Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SaknaiNewEnv\SAKANI_TST_NEW\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08331638-F775-4F73-805C-0A0D93324819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49473220-B98B-4A1E-9FCD-1BFBD30C4831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="358">
   <si>
     <t>P_Key</t>
   </si>
@@ -1088,22 +1088,19 @@
     <t>Verify the Plot List Number exists in the card details page for Land Projects</t>
   </si>
   <si>
+    <t>https://test-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>1041380906</t>
+  </si>
+  <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
+    <t>LAU 003 interactive map</t>
+  </si>
+  <si>
     <t>Test Private Offplan 11June PQ</t>
-  </si>
-  <si>
-    <t>https://test-sakani.housingapps.sa/en</t>
-  </si>
-  <si>
-    <t>V4 - Off plan land private land</t>
-  </si>
-  <si>
-    <t>Aa@123456</t>
-  </si>
-  <si>
-    <t>LandProjectName1</t>
-  </si>
-  <si>
-    <t>Land MOH demo new ui</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1414,13 +1411,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1519,11 +1527,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1661,9 +1672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1701,7 +1712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1807,7 +1818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1949,7 +1960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1959,12 +1970,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1981,7 +1992,7 @@
     <col min="10" max="10" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" style="3" customWidth="1"/>
     <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
@@ -2084,7 +2095,7 @@
         <v>247</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K3" s="35">
         <v>1</v>
@@ -2123,13 +2134,13 @@
         <v>247</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K4" s="35">
         <v>1</v>
       </c>
       <c r="L4" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="35"/>
     </row>
@@ -2162,13 +2173,13 @@
         <v>247</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K5" s="35">
         <v>1</v>
       </c>
       <c r="L5" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="35"/>
     </row>
@@ -2201,13 +2212,13 @@
         <v>247</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K6" s="35">
         <v>1</v>
       </c>
       <c r="L6" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="35"/>
     </row>
@@ -2240,13 +2251,13 @@
         <v>247</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K7" s="35">
         <v>1</v>
       </c>
       <c r="L7" s="49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="35"/>
     </row>
@@ -2285,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M8" s="35"/>
     </row>
@@ -2318,13 +2329,13 @@
         <v>247</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K9" s="35">
         <v>1</v>
       </c>
       <c r="L9" s="49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M9" s="35"/>
     </row>
@@ -2357,13 +2368,13 @@
         <v>247</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K10" s="35">
         <v>1</v>
       </c>
       <c r="L10" s="49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M10" s="35"/>
     </row>
@@ -2396,13 +2407,13 @@
         <v>247</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K11" s="35">
         <v>1</v>
       </c>
       <c r="L11" s="49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -2435,13 +2446,13 @@
         <v>247</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K12" s="35">
         <v>1</v>
       </c>
       <c r="L12" s="49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M12" s="35"/>
     </row>
@@ -2474,13 +2485,13 @@
         <v>247</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K13" s="35">
         <v>1</v>
       </c>
       <c r="L13" s="49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M13" s="35"/>
     </row>
@@ -2513,13 +2524,13 @@
         <v>247</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K14" s="35">
         <v>1</v>
       </c>
       <c r="L14" s="49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -2552,13 +2563,13 @@
         <v>247</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K15" s="35">
         <v>1</v>
       </c>
       <c r="L15" s="49">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M15" s="35"/>
     </row>
@@ -2591,13 +2602,13 @@
         <v>247</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K16" s="35">
         <v>1</v>
       </c>
       <c r="L16" s="49">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -2630,13 +2641,13 @@
         <v>247</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K17" s="35">
         <v>1</v>
       </c>
       <c r="L17" s="49">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2674,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="49">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="49">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2744,13 +2755,13 @@
         <v>247</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K20" s="35">
         <v>1</v>
       </c>
       <c r="L20" s="49">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2788,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="49">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2826,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="49">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2858,13 +2869,13 @@
         <v>247</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K23" s="35">
         <v>1</v>
       </c>
       <c r="L23" s="49">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2896,13 +2907,13 @@
         <v>247</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K24" s="35">
         <v>1</v>
       </c>
       <c r="L24" s="49">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2934,13 +2945,13 @@
         <v>247</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K25" s="35">
         <v>1</v>
       </c>
       <c r="L25" s="49">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2978,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="49">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3010,13 +3021,13 @@
         <v>247</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K27" s="35">
         <v>1</v>
       </c>
       <c r="L27" s="49">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3054,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="49">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3086,13 +3097,13 @@
         <v>247</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K29" s="35">
         <v>1</v>
       </c>
       <c r="L29" s="49">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3124,13 +3135,13 @@
         <v>247</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K30" s="35">
         <v>1</v>
       </c>
       <c r="L30" s="49">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="49">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="49">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3244,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="49">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="49">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3320,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="49">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3352,24 +3363,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640165FD-FC07-4859-B797-7713E3941C55}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
@@ -3391,42 +3402,37 @@
       <c r="G1" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="34" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="53">
+        <v>1234</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1023129537</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="G2" s="52" t="s">
         <v>356</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E2DC457F-7D87-4586-9C73-E487CED63E5F}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C8748265-939F-4DB7-A7EF-435A4DEEA65C}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{488392FE-4344-490B-8C5D-4A68351D040A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5037,20 +5043,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
